--- a/uploads/nilai/upload_nilai.xlsx
+++ b/uploads/nilai/upload_nilai.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>No.</t>
   </si>
@@ -206,18 +206,12 @@
     <t xml:space="preserve">BHAKTI PRASETYA P.    </t>
   </si>
   <si>
-    <t>061430</t>
-  </si>
-  <si>
     <t>100418</t>
   </si>
   <si>
     <t>999999999</t>
   </si>
   <si>
-    <t>199503252018011001</t>
-  </si>
-  <si>
     <t>0105120702</t>
   </si>
   <si>
@@ -234,15 +228,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BILARDO JATU S.N.     </t>
-  </si>
-  <si>
-    <t>199510312018011001</t>
   </si>
 </sst>
 </file>
@@ -283,9 +268,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF3"/>
+  <dimension ref="A1:BF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BG1" sqref="BG1:FB1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.2">
@@ -772,233 +758,117 @@
       <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>14401</v>
+      </c>
+      <c r="D2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2">
+        <v>1.9521221197803101E+17</v>
+      </c>
+      <c r="G2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
         <v>65</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" t="s">
         <v>66</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" t="s">
         <v>67</v>
       </c>
-      <c r="K2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" t="s">
         <v>67</v>
       </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="X2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" t="s">
         <v>67</v>
       </c>
-      <c r="T2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AB2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" t="s">
         <v>67</v>
       </c>
-      <c r="W2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AG2" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AH2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AK2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" t="s">
         <v>67</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3" t="s">
-        <v>68</v>
-      </c>
-      <c r="V3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W3" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:AL3">
+  <conditionalFormatting sqref="I2:AL2">
     <cfRule type="containsBlanks" dxfId="1" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
